--- a/data/raw/toxcast_mw2.xlsx
+++ b/data/raw/toxcast_mw2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcrombie/repos/EHP_manuscript/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F240B0-4EDD-5944-82FA-4D0DB98DBE78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A818CA-98A8-9642-A426-25E9BD385C84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="1414">
   <si>
     <t>INPUT</t>
   </si>
@@ -4260,6 +4254,24 @@
   </si>
   <si>
     <t>75-60-5</t>
+  </si>
+  <si>
+    <t>DTXSID1021160</t>
+  </si>
+  <si>
+    <t>Picloram</t>
+  </si>
+  <si>
+    <t>DTXSID4020242</t>
+  </si>
+  <si>
+    <t>Captafol</t>
+  </si>
+  <si>
+    <t>1918-02-1</t>
+  </si>
+  <si>
+    <t>2425-06-1</t>
   </si>
 </sst>
 </file>
@@ -4278,11 +4290,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4312,10 +4326,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4630,10 +4645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F468"/>
+  <dimension ref="A1:F470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="I469" sqref="I469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4641,6 +4656,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="106.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4659,7 +4675,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4679,7 +4695,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4699,7 +4715,7 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4719,7 +4735,7 @@
       <c r="E4" s="1">
         <v>367.03500000000003</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4739,7 +4755,7 @@
       <c r="E5" s="1">
         <v>325.51</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4759,7 +4775,7 @@
       <c r="E6" s="1">
         <v>375.14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4779,7 +4795,7 @@
       <c r="E7" s="1">
         <v>364.93</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4799,7 +4815,7 @@
       <c r="E8" s="1">
         <v>407.99</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4819,7 +4835,7 @@
       <c r="E9" s="1">
         <v>313.74</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4839,7 +4855,7 @@
       <c r="E10" s="1">
         <v>308.13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4859,7 +4875,7 @@
       <c r="E11" s="1">
         <v>333.86</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4879,7 +4895,7 @@
       <c r="E12" s="1">
         <v>334.51</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4899,7 +4915,7 @@
       <c r="E13" s="1">
         <v>421.49700000000001</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4919,7 +4935,7 @@
       <c r="E14" s="1">
         <v>252.316</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4939,7 +4955,7 @@
       <c r="E15" s="1">
         <v>323.3</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4959,7 +4975,7 @@
       <c r="E16" s="1">
         <v>362.76</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4979,7 +4995,7 @@
       <c r="E17" s="1">
         <v>130.18</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4999,7 +5015,7 @@
       <c r="E18" s="1">
         <v>253.43</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5019,7 +5035,7 @@
       <c r="E19" s="1">
         <v>336.74</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5039,7 +5055,7 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5059,7 +5075,7 @@
       <c r="E21" s="1">
         <v>538.22</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5079,7 +5095,7 @@
       <c r="E22" s="1">
         <v>213.34</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5099,7 +5115,7 @@
       <c r="E23" s="1">
         <v>373.18</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5119,7 +5135,7 @@
       <c r="E24" s="1">
         <v>315.58</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5139,7 +5155,7 @@
       <c r="E25" s="1">
         <v>303.36</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5159,7 +5175,7 @@
       <c r="E26" s="1">
         <v>350.57</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5179,7 +5195,7 @@
       <c r="E27" s="1">
         <v>321.37599999999998</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5199,7 +5215,7 @@
       <c r="E28" s="1">
         <v>361.7</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5219,7 +5235,7 @@
       <c r="E29" s="1">
         <v>428.56</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5239,7 +5255,7 @@
       <c r="E30" s="1">
         <v>291.26</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5259,7 +5275,7 @@
       <c r="E31" s="1">
         <v>320.02999999999997</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5279,7 +5295,7 @@
       <c r="E32" s="1">
         <v>345.64</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5299,7 +5315,7 @@
       <c r="E33" s="1">
         <v>370.48</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5319,7 +5335,7 @@
       <c r="E34" s="1">
         <v>490.61</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5339,7 +5355,7 @@
       <c r="E35" s="1">
         <v>278.32</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5359,7 +5375,7 @@
       <c r="E36" s="1">
         <v>202.256</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5379,7 +5395,7 @@
       <c r="E37" s="1">
         <v>359.41699999999997</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5399,7 +5415,7 @@
       <c r="E38" s="1">
         <v>380.55</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5419,7 +5435,7 @@
       <c r="E39" s="1">
         <v>286.11</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5439,7 +5455,7 @@
       <c r="E40" s="1">
         <v>384.46</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5459,7 +5475,7 @@
       <c r="E41" s="1">
         <v>326.28800000000001</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5479,7 +5495,7 @@
       <c r="E42" s="1">
         <v>228.29400000000001</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5499,7 +5515,7 @@
       <c r="E43" s="1">
         <v>364.9</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5519,7 +5535,7 @@
       <c r="E44" s="1">
         <v>406.26</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5539,7 +5555,7 @@
       <c r="E45" s="1">
         <v>354.46</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5559,7 +5575,7 @@
       <c r="E46" s="1">
         <v>257.43</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5579,7 +5595,7 @@
       <c r="E47" s="1">
         <v>197.24100000000001</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5599,7 +5615,7 @@
       <c r="E48" s="1">
         <v>211.268</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5619,7 +5635,7 @@
       <c r="E49" s="1">
         <v>140.19</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5639,7 +5655,7 @@
       <c r="E50" s="1">
         <v>249.107</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5659,7 +5675,7 @@
       <c r="E51" s="1">
         <v>373.3</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="3" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5679,7 +5695,7 @@
       <c r="E52" s="1">
         <v>263.2</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5699,7 +5715,7 @@
       <c r="E53" s="1">
         <v>389.3</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5719,7 +5735,7 @@
       <c r="E54" s="1">
         <v>315.399</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5739,7 +5755,7 @@
       <c r="E55" s="1">
         <v>104.11199999999999</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5759,7 +5775,7 @@
       <c r="E56" s="1">
         <v>406.9</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="3" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5779,7 +5795,7 @@
       <c r="E57" s="1">
         <v>530.70000000000005</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5799,7 +5815,7 @@
       <c r="E58" s="1">
         <v>380.9</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="3" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5819,7 +5835,7 @@
       <c r="E59" s="1">
         <v>500.13</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="3" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5839,7 +5855,7 @@
       <c r="E60" s="1">
         <v>202.256</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="3" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5859,7 +5875,7 @@
       <c r="E61" s="1">
         <v>318.02</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5879,7 +5895,7 @@
       <c r="E62" s="1">
         <v>564.09299999999996</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5899,7 +5915,7 @@
       <c r="E63" s="1">
         <v>344.84</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5919,7 +5935,7 @@
       <c r="E64" s="1">
         <v>527.20000000000005</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5939,7 +5955,7 @@
       <c r="E65" s="1">
         <v>314.5</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5959,7 +5975,7 @@
       <c r="E66" s="1">
         <v>191.19</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="3" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5979,7 +5995,7 @@
       <c r="E67" s="1">
         <v>380.78</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5999,7 +6015,7 @@
       <c r="E68" s="1">
         <v>225.29499999999999</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6019,7 +6035,7 @@
       <c r="E69" s="1">
         <v>316.43</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="3" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6039,7 +6055,7 @@
       <c r="E70" s="1">
         <v>514.08600000000001</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="3" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6059,7 +6075,7 @@
       <c r="E71" s="1">
         <v>284.08999999999997</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6079,7 +6095,7 @@
       <c r="E72" s="1">
         <v>499.14</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6099,7 +6115,7 @@
       <c r="E73" s="1">
         <v>200.36600000000001</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6119,7 +6135,7 @@
       <c r="E74" s="1">
         <v>271.49</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6139,7 +6155,7 @@
       <c r="E75" s="1">
         <v>380.9</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6159,7 +6175,7 @@
       <c r="E76" s="1">
         <v>402.46899999999999</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="3" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6179,7 +6195,7 @@
       <c r="E77" s="1">
         <v>277.23</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6199,7 +6215,7 @@
       <c r="E78" s="1">
         <v>178.23400000000001</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="3" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6219,7 +6235,7 @@
       <c r="E79" s="1">
         <v>409.76</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="3" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6239,7 +6255,7 @@
       <c r="E80" s="1">
         <v>323.13299999999998</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6259,7 +6275,7 @@
       <c r="E81" s="1">
         <v>354.48</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="3" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6279,7 +6295,7 @@
       <c r="E82" s="1">
         <v>657.77</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6299,7 +6315,7 @@
       <c r="E83" s="1">
         <v>527.84</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="3" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6319,7 +6335,7 @@
       <c r="E84" s="1">
         <v>256.34800000000001</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6339,7 +6355,7 @@
       <c r="E85" s="1">
         <v>354.48</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="3" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6359,7 +6375,7 @@
       <c r="E86" s="1">
         <v>182.226</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="3" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6379,7 +6395,7 @@
       <c r="E87" s="1">
         <v>367.8</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6399,7 +6415,7 @@
       <c r="E88" s="1">
         <v>234.38300000000001</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="3" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6419,7 +6435,7 @@
       <c r="E89" s="1">
         <v>372.14</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="3" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6439,7 +6455,7 @@
       <c r="E90" s="1">
         <v>242.33</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="3" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6459,7 +6475,7 @@
       <c r="E91" s="1">
         <v>360.83</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="3" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6479,7 +6495,7 @@
       <c r="E92" s="1">
         <v>415.53300000000002</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="3" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6499,7 +6515,7 @@
       <c r="E93" s="1">
         <v>543.875</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="3" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6519,7 +6535,7 @@
       <c r="E94" s="1">
         <v>464.07799999999997</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="3" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6539,7 +6555,7 @@
       <c r="E95" s="1">
         <v>300.14999999999998</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="3" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6559,7 +6575,7 @@
       <c r="E96" s="1">
         <v>169.227</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="3" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6579,7 +6595,7 @@
       <c r="E97" s="1">
         <v>608.68799999999999</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="3" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6599,7 +6615,7 @@
       <c r="E98" s="1">
         <v>396.84</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6619,7 +6635,7 @@
       <c r="E99" s="1">
         <v>288.38</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="3" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6639,7 +6655,7 @@
       <c r="E100" s="1">
         <v>485.51</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="3" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6659,7 +6675,7 @@
       <c r="E101" s="1">
         <v>289.54000000000002</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6679,7 +6695,7 @@
       <c r="E102" s="1">
         <v>448.41</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="3" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6699,7 +6715,7 @@
       <c r="E103" s="1">
         <v>276.21499999999997</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="3" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6719,7 +6735,7 @@
       <c r="E104" s="1">
         <v>413.54</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="3" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6739,7 +6755,7 @@
       <c r="E105" s="1">
         <v>186.339</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="3" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6759,7 +6775,7 @@
       <c r="E106" s="1">
         <v>362.08</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="3" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6779,7 +6795,7 @@
       <c r="E107" s="1">
         <v>391.29</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="3" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6799,7 +6815,7 @@
       <c r="E108" s="1">
         <v>214.393</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="3" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6819,7 +6835,7 @@
       <c r="E109" s="1">
         <v>178.23400000000001</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="3" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6839,7 +6855,7 @@
       <c r="E110" s="1">
         <v>375.87</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="3" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6859,7 +6875,7 @@
       <c r="E111" s="1">
         <v>301.34199999999998</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6879,7 +6895,7 @@
       <c r="E112" s="1">
         <v>563.64700000000005</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="3" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6899,7 +6915,7 @@
       <c r="E113" s="1">
         <v>300.44200000000001</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="3" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6919,7 +6935,7 @@
       <c r="E114" s="1">
         <v>326.22000000000003</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="3" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6939,7 +6955,7 @@
       <c r="E115" s="1">
         <v>330.471</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="3" t="s">
         <v>348</v>
       </c>
     </row>
@@ -6959,7 +6975,7 @@
       <c r="E116" s="1">
         <v>531.42999999999995</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="3" t="s">
         <v>351</v>
       </c>
     </row>
@@ -6979,7 +6995,7 @@
       <c r="E117" s="1">
         <v>325.19</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="3" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6999,7 +7015,7 @@
       <c r="E118" s="1">
         <v>401.41</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="3" t="s">
         <v>357</v>
       </c>
     </row>
@@ -7019,7 +7035,7 @@
       <c r="E119" s="1">
         <v>336.82</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="3" t="s">
         <v>360</v>
       </c>
     </row>
@@ -7039,7 +7055,7 @@
       <c r="E120" s="1">
         <v>475.69</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="3" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7059,7 +7075,7 @@
       <c r="E121" s="1">
         <v>292.42</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7079,7 +7095,7 @@
       <c r="E122" s="1">
         <v>441.54</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="3" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7099,7 +7115,7 @@
       <c r="E123" s="1">
         <v>304.64999999999998</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="3" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7119,7 +7135,7 @@
       <c r="E124" t="s">
         <v>8</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="3" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7139,7 +7155,7 @@
       <c r="E125" s="1">
         <v>411.32</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="3" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7159,7 +7175,7 @@
       <c r="E126" s="1">
         <v>571.12</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="3" t="s">
         <v>381</v>
       </c>
     </row>
@@ -7179,7 +7195,7 @@
       <c r="E127" s="1">
         <v>335.98</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="3" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7199,7 +7215,7 @@
       <c r="E128" s="1">
         <v>120.19499999999999</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="3" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7219,7 +7235,7 @@
       <c r="E129" s="1">
         <v>373.63</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="3" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7239,7 +7255,7 @@
       <c r="E130" s="1">
         <v>335.28300000000002</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="3" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7259,7 +7275,7 @@
       <c r="E131" s="1">
         <v>172.31200000000001</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="3" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7279,7 +7295,7 @@
       <c r="E132" s="1">
         <v>290.81</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="3" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7299,7 +7315,7 @@
       <c r="E133" s="1">
         <v>372.81</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="3" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7319,7 +7335,7 @@
       <c r="E134" s="1">
         <v>323.392</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="3" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7339,7 +7355,7 @@
       <c r="E135" s="1">
         <v>127.57</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="3" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7359,7 +7375,7 @@
       <c r="E136" s="1">
         <v>282.33600000000001</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="3" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7379,7 +7395,7 @@
       <c r="E137" s="1">
         <v>344.49</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="3" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7399,7 +7415,7 @@
       <c r="E138" s="1">
         <v>371.524</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="3" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7419,7 +7435,7 @@
       <c r="E139" s="1">
         <v>300.58</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="3" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7439,7 +7455,7 @@
       <c r="E140" s="1">
         <v>130.078</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="3" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7459,7 +7475,7 @@
       <c r="E141" s="1">
         <v>184.24199999999999</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="3" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7479,7 +7495,7 @@
       <c r="E142" s="1">
         <v>182.13499999999999</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="3" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7499,7 +7515,7 @@
       <c r="E143" s="1">
         <v>182.22200000000001</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="3" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7519,7 +7535,7 @@
       <c r="E144" s="1">
         <v>295.339</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="3" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7539,7 +7555,7 @@
       <c r="E145" s="1">
         <v>266.32</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="3" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7559,7 +7575,7 @@
       <c r="E146" s="1">
         <v>134.13399999999999</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="3" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7579,7 +7595,7 @@
       <c r="E147" s="1">
         <v>326.392</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="3" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7599,7 +7615,7 @@
       <c r="E148" s="1">
         <v>198.10599999999999</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="3" t="s">
         <v>447</v>
       </c>
     </row>
@@ -7619,7 +7635,7 @@
       <c r="E149" s="1">
         <v>184.24199999999999</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="3" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7639,7 +7655,7 @@
       <c r="E150" s="1">
         <v>216.32400000000001</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="3" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7659,7 +7675,7 @@
       <c r="E151" s="1">
         <v>194.233</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="3" t="s">
         <v>456</v>
       </c>
     </row>
@@ -7679,7 +7695,7 @@
       <c r="E152" s="1">
         <v>314.46600000000001</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="3" t="s">
         <v>459</v>
       </c>
     </row>
@@ -7699,7 +7715,7 @@
       <c r="E153" s="1">
         <v>430.89</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="3" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7719,7 +7735,7 @@
       <c r="E154" s="1">
         <v>258.358</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="3" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7739,7 +7755,7 @@
       <c r="E155" s="1">
         <v>338.44400000000002</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="3" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7759,7 +7775,7 @@
       <c r="E156" s="1">
         <v>759.67</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="3" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7779,7 +7795,7 @@
       <c r="E157" s="1">
         <v>330.4</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="3" t="s">
         <v>474</v>
       </c>
     </row>
@@ -7799,7 +7815,7 @@
       <c r="E158" s="1">
         <v>546.62300000000005</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="3" t="s">
         <v>477</v>
       </c>
     </row>
@@ -7819,7 +7835,7 @@
       <c r="E159" s="1">
         <v>385.3</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="3" t="s">
         <v>480</v>
       </c>
     </row>
@@ -7839,7 +7855,7 @@
       <c r="E160" s="1">
         <v>432.18099999999998</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="3" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7859,7 +7875,7 @@
       <c r="E161" s="1">
         <v>168.19499999999999</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="3" t="s">
         <v>486</v>
       </c>
     </row>
@@ -7879,7 +7895,7 @@
       <c r="E162" s="1">
         <v>461.77</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="3" t="s">
         <v>489</v>
       </c>
     </row>
@@ -7899,7 +7915,7 @@
       <c r="E163" s="1">
         <v>355.32</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="3" t="s">
         <v>492</v>
       </c>
     </row>
@@ -7919,7 +7935,7 @@
       <c r="E164" s="1">
         <v>218.68</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="3" t="s">
         <v>495</v>
       </c>
     </row>
@@ -7939,7 +7955,7 @@
       <c r="E165" s="1">
         <v>560.654</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="3" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7959,7 +7975,7 @@
       <c r="E166" s="1">
         <v>142.59</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="3" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7979,7 +7995,7 @@
       <c r="E167" s="1">
         <v>206.32900000000001</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="3" t="s">
         <v>504</v>
       </c>
     </row>
@@ -7999,7 +8015,7 @@
       <c r="E168" s="1">
         <v>381.37</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="3" t="s">
         <v>507</v>
       </c>
     </row>
@@ -8019,7 +8035,7 @@
       <c r="E169" s="1">
         <v>359.39699999999999</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="3" t="s">
         <v>510</v>
       </c>
     </row>
@@ -8039,7 +8055,7 @@
       <c r="E170" s="1">
         <v>681.78</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="3" t="s">
         <v>513</v>
       </c>
     </row>
@@ -8059,7 +8075,7 @@
       <c r="E171" s="1">
         <v>307.82</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="3" t="s">
         <v>516</v>
       </c>
     </row>
@@ -8079,7 +8095,7 @@
       <c r="E172" s="1">
         <v>326.43599999999998</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="3" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8099,7 +8115,7 @@
       <c r="E173" s="1">
         <v>428.52800000000002</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="3" t="s">
         <v>522</v>
       </c>
     </row>
@@ -8119,7 +8135,7 @@
       <c r="E174" s="1">
         <v>152.15299999999999</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="3" t="s">
         <v>525</v>
       </c>
     </row>
@@ -8139,7 +8155,7 @@
       <c r="E175" s="1">
         <v>238.34</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="3" t="s">
         <v>528</v>
       </c>
     </row>
@@ -8159,7 +8175,7 @@
       <c r="E176" s="1">
         <v>225.29499999999999</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="3" t="s">
         <v>531</v>
       </c>
     </row>
@@ -8179,7 +8195,7 @@
       <c r="E177" s="1">
         <v>162.21</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="3" t="s">
         <v>534</v>
       </c>
     </row>
@@ -8199,7 +8215,7 @@
       <c r="E178" s="1">
         <v>229.91</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="3" t="s">
         <v>537</v>
       </c>
     </row>
@@ -8219,7 +8235,7 @@
       <c r="E179" s="1">
         <v>367.32400000000001</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="3" t="s">
         <v>540</v>
       </c>
     </row>
@@ -8239,7 +8255,7 @@
       <c r="E180" s="1">
         <v>251.24</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="3" t="s">
         <v>543</v>
       </c>
     </row>
@@ -8259,7 +8275,7 @@
       <c r="E181" t="s">
         <v>8</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="3" t="s">
         <v>546</v>
       </c>
     </row>
@@ -8279,7 +8295,7 @@
       <c r="E182" s="1">
         <v>621.65</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="3" t="s">
         <v>549</v>
       </c>
     </row>
@@ -8299,7 +8315,7 @@
       <c r="E183" s="1">
         <v>444.56</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="3" t="s">
         <v>552</v>
       </c>
     </row>
@@ -8319,7 +8335,7 @@
       <c r="E184" s="1">
         <v>206.32900000000001</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="3" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8339,7 +8355,7 @@
       <c r="E185" s="1">
         <v>215.88</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="3" t="s">
         <v>558</v>
       </c>
     </row>
@@ -8359,7 +8375,7 @@
       <c r="E186" s="1">
         <v>257.77999999999997</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="3" t="s">
         <v>561</v>
       </c>
     </row>
@@ -8379,7 +8395,7 @@
       <c r="E187" s="1">
         <v>275.30799999999999</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="3" t="s">
         <v>564</v>
       </c>
     </row>
@@ -8399,7 +8415,7 @@
       <c r="E188" s="1">
         <v>304.33999999999997</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="3" t="s">
         <v>567</v>
       </c>
     </row>
@@ -8419,7 +8435,7 @@
       <c r="E189" s="1">
         <v>168.108</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="3" t="s">
         <v>570</v>
       </c>
     </row>
@@ -8439,7 +8455,7 @@
       <c r="E190" s="1">
         <v>387.82</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="3" t="s">
         <v>573</v>
       </c>
     </row>
@@ -8459,7 +8475,7 @@
       <c r="E191" s="1">
         <v>318.37</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="3" t="s">
         <v>576</v>
       </c>
     </row>
@@ -8479,7 +8495,7 @@
       <c r="E192" s="1">
         <v>194.274</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="3" t="s">
         <v>579</v>
       </c>
     </row>
@@ -8499,7 +8515,7 @@
       <c r="E193" s="1">
         <v>240.42</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="3" t="s">
         <v>582</v>
       </c>
     </row>
@@ -8519,7 +8535,7 @@
       <c r="E194" s="1">
         <v>218.255</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="3" t="s">
         <v>585</v>
       </c>
     </row>
@@ -8539,7 +8555,7 @@
       <c r="E195" s="1">
         <v>207.01</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="3" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8559,7 +8575,7 @@
       <c r="E196" s="1">
         <v>397.5</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="3" t="s">
         <v>591</v>
       </c>
     </row>
@@ -8579,7 +8595,7 @@
       <c r="E197" s="1">
         <v>592.67999999999995</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="3" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8599,7 +8615,7 @@
       <c r="E198" s="1">
         <v>380.411</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="3" t="s">
         <v>597</v>
       </c>
     </row>
@@ -8619,7 +8635,7 @@
       <c r="E199" s="1">
         <v>396.38</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="3" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8639,7 +8655,7 @@
       <c r="E200" s="1">
         <v>465.09</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="3" t="s">
         <v>603</v>
       </c>
     </row>
@@ -8659,7 +8675,7 @@
       <c r="E201" s="1">
         <v>166.22300000000001</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="3" t="s">
         <v>606</v>
       </c>
     </row>
@@ -8679,7 +8695,7 @@
       <c r="E202" s="1">
         <v>256.45999999999998</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="3" t="s">
         <v>609</v>
       </c>
     </row>
@@ -8699,7 +8715,7 @@
       <c r="E203" s="1">
         <v>220.97</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="3" t="s">
         <v>612</v>
       </c>
     </row>
@@ -8719,7 +8735,7 @@
       <c r="E204" s="1">
         <v>206.32900000000001</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="3" t="s">
         <v>615</v>
       </c>
     </row>
@@ -8739,7 +8755,7 @@
       <c r="E205" s="1">
         <v>317.32</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="3" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8759,7 +8775,7 @@
       <c r="E206" s="1">
         <v>343.21</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="3" t="s">
         <v>621</v>
       </c>
     </row>
@@ -8779,7 +8795,7 @@
       <c r="E207" s="1">
         <v>278.34800000000001</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="3" t="s">
         <v>624</v>
       </c>
     </row>
@@ -8799,7 +8815,7 @@
       <c r="E208" s="1">
         <v>331.2</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="3" t="s">
         <v>627</v>
       </c>
     </row>
@@ -8819,7 +8835,7 @@
       <c r="E209" s="1">
         <v>317.58999999999997</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="3" t="s">
         <v>630</v>
       </c>
     </row>
@@ -8839,7 +8855,7 @@
       <c r="E210" s="1">
         <v>230.9</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="3" t="s">
         <v>633</v>
       </c>
     </row>
@@ -8859,7 +8875,7 @@
       <c r="E211" s="1">
         <v>213.66</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="3" t="s">
         <v>636</v>
       </c>
     </row>
@@ -8879,7 +8895,7 @@
       <c r="E212" s="1">
         <v>306.36099999999999</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="3" t="s">
         <v>639</v>
       </c>
     </row>
@@ -8899,7 +8915,7 @@
       <c r="E213" s="1">
         <v>263.89</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="3" t="s">
         <v>642</v>
       </c>
     </row>
@@ -8919,7 +8935,7 @@
       <c r="E214" s="1">
         <v>255.66</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="3" t="s">
         <v>645</v>
       </c>
     </row>
@@ -8939,7 +8955,7 @@
       <c r="E215" s="1">
         <v>361.78</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="3" t="s">
         <v>648</v>
       </c>
     </row>
@@ -8959,7 +8975,7 @@
       <c r="E216" s="1">
         <v>126.13</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="3" t="s">
         <v>651</v>
       </c>
     </row>
@@ -8979,7 +8995,7 @@
       <c r="E217" s="1">
         <v>257.72000000000003</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="3" t="s">
         <v>654</v>
       </c>
     </row>
@@ -8999,7 +9015,7 @@
       <c r="E218" s="1">
         <v>222.328</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="3" t="s">
         <v>657</v>
       </c>
     </row>
@@ -9019,7 +9035,7 @@
       <c r="E219" s="1">
         <v>314.20999999999998</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="3" t="s">
         <v>660</v>
       </c>
     </row>
@@ -9039,7 +9055,7 @@
       <c r="E220" s="1">
         <v>154.18</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="3" t="s">
         <v>663</v>
       </c>
     </row>
@@ -9059,7 +9075,7 @@
       <c r="E221" s="1">
         <v>376.49599999999998</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="3" t="s">
         <v>666</v>
       </c>
     </row>
@@ -9079,7 +9095,7 @@
       <c r="E222" s="1">
         <v>408.37700000000001</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="3" t="s">
         <v>669</v>
       </c>
     </row>
@@ -9099,7 +9115,7 @@
       <c r="E223" s="1">
         <v>297.52699999999999</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="3" t="s">
         <v>672</v>
       </c>
     </row>
@@ -9119,7 +9135,7 @@
       <c r="E224" s="1">
         <v>242.31800000000001</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="3" t="s">
         <v>675</v>
       </c>
     </row>
@@ -9139,7 +9155,7 @@
       <c r="E225" s="1">
         <v>344.34199999999998</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="3" t="s">
         <v>678</v>
       </c>
     </row>
@@ -9159,7 +9175,7 @@
       <c r="E226" s="1">
         <v>324.77999999999997</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="3" t="s">
         <v>681</v>
       </c>
     </row>
@@ -9179,7 +9195,7 @@
       <c r="E227" s="1">
         <v>221.256</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="3" t="s">
         <v>684</v>
       </c>
     </row>
@@ -9199,7 +9215,7 @@
       <c r="E228" s="1">
         <v>254.37700000000001</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="3" t="s">
         <v>687</v>
       </c>
     </row>
@@ -9219,7 +9235,7 @@
       <c r="E229" s="1">
         <v>352.86</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="3" t="s">
         <v>690</v>
       </c>
     </row>
@@ -9239,7 +9255,7 @@
       <c r="E230" s="1">
         <v>278.34800000000001</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="3" t="s">
         <v>693</v>
       </c>
     </row>
@@ -9259,7 +9275,7 @@
       <c r="E231" s="1">
         <v>258.358</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="3" t="s">
         <v>696</v>
       </c>
     </row>
@@ -9279,7 +9295,7 @@
       <c r="E232" s="1">
         <v>331.41199999999998</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="3" t="s">
         <v>699</v>
       </c>
     </row>
@@ -9299,7 +9315,7 @@
       <c r="E233" s="1">
         <v>168.108</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="3" t="s">
         <v>702</v>
       </c>
     </row>
@@ -9319,7 +9335,7 @@
       <c r="E234" s="1">
         <v>192</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="3" t="s">
         <v>705</v>
       </c>
     </row>
@@ -9339,7 +9355,7 @@
       <c r="E235" s="1">
         <v>296.52</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="3" t="s">
         <v>708</v>
       </c>
     </row>
@@ -9359,7 +9375,7 @@
       <c r="E236" s="1">
         <v>271.36</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="3" t="s">
         <v>711</v>
       </c>
     </row>
@@ -9379,7 +9395,7 @@
       <c r="E237" s="1">
         <v>345.75</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="3" t="s">
         <v>714</v>
       </c>
     </row>
@@ -9399,7 +9415,7 @@
       <c r="E238" s="1">
         <v>492.38900000000001</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="3" t="s">
         <v>717</v>
       </c>
     </row>
@@ -9419,7 +9435,7 @@
       <c r="E239" s="1">
         <v>496.9</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239" s="3" t="s">
         <v>720</v>
       </c>
     </row>
@@ -9439,7 +9455,7 @@
       <c r="E240" s="1">
         <v>414.07</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" s="3" t="s">
         <v>723</v>
       </c>
     </row>
@@ -9459,7 +9475,7 @@
       <c r="E241" s="1">
         <v>387.86</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="3" t="s">
         <v>726</v>
       </c>
     </row>
@@ -9479,7 +9495,7 @@
       <c r="E242" s="1">
         <v>329.322</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="3" t="s">
         <v>729</v>
       </c>
     </row>
@@ -9499,7 +9515,7 @@
       <c r="E243" s="1">
         <v>444.44</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="3" t="s">
         <v>732</v>
       </c>
     </row>
@@ -9519,7 +9535,7 @@
       <c r="E244" s="1">
         <v>249.09</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="3" t="s">
         <v>735</v>
       </c>
     </row>
@@ -9539,7 +9555,7 @@
       <c r="E245" s="1">
         <v>212.292</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="3" t="s">
         <v>738</v>
       </c>
     </row>
@@ -9559,7 +9575,7 @@
       <c r="E246" s="1">
         <v>281.09300000000002</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="3" t="s">
         <v>741</v>
       </c>
     </row>
@@ -9579,7 +9595,7 @@
       <c r="E247" s="1">
         <v>352.88</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="3" t="s">
         <v>744</v>
       </c>
     </row>
@@ -9599,7 +9615,7 @@
       <c r="E248" s="1">
         <v>358.43400000000003</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="3" t="s">
         <v>747</v>
       </c>
     </row>
@@ -9619,7 +9635,7 @@
       <c r="E249" s="1">
         <v>248.18899999999999</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F249" s="3" t="s">
         <v>750</v>
       </c>
     </row>
@@ -9639,7 +9655,7 @@
       <c r="E250" s="1">
         <v>223.23099999999999</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F250" s="3" t="s">
         <v>753</v>
       </c>
     </row>
@@ -9659,7 +9675,7 @@
       <c r="E251" s="1">
         <v>383.36700000000002</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="3" t="s">
         <v>756</v>
       </c>
     </row>
@@ -9679,7 +9695,7 @@
       <c r="E252" s="1">
         <v>383.36700000000002</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="3" t="s">
         <v>759</v>
       </c>
     </row>
@@ -9699,7 +9715,7 @@
       <c r="E253" s="1">
         <v>322.52</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F253" s="3" t="s">
         <v>762</v>
       </c>
     </row>
@@ -9719,7 +9735,7 @@
       <c r="E254" s="1">
         <v>394.423</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" s="3" t="s">
         <v>765</v>
       </c>
     </row>
@@ -9739,7 +9755,7 @@
       <c r="E255" s="1">
         <v>297.483</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F255" s="3" t="s">
         <v>768</v>
       </c>
     </row>
@@ -9759,7 +9775,7 @@
       <c r="E256" s="1">
         <v>265.89999999999998</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="3" t="s">
         <v>771</v>
       </c>
     </row>
@@ -9779,7 +9795,7 @@
       <c r="E257" s="1">
         <v>135.21</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F257" s="3" t="s">
         <v>774</v>
       </c>
     </row>
@@ -9799,7 +9815,7 @@
       <c r="E258" s="1">
         <v>426.68200000000002</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F258" s="3" t="s">
         <v>777</v>
       </c>
     </row>
@@ -9819,7 +9835,7 @@
       <c r="E259" s="1">
         <v>151.63</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F259" s="3" t="s">
         <v>780</v>
       </c>
     </row>
@@ -9839,7 +9855,7 @@
       <c r="E260" s="1">
         <v>255.49</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="3" t="s">
         <v>783</v>
       </c>
     </row>
@@ -9859,7 +9875,7 @@
       <c r="E261" s="1">
         <v>137.142</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="3" t="s">
         <v>786</v>
       </c>
     </row>
@@ -9879,7 +9895,7 @@
       <c r="E262" s="1">
         <v>357.38099999999997</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" s="3" t="s">
         <v>789</v>
       </c>
     </row>
@@ -9899,7 +9915,7 @@
       <c r="E263" s="1">
         <v>290.44400000000002</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F263" s="3" t="s">
         <v>792</v>
       </c>
     </row>
@@ -9919,7 +9935,7 @@
       <c r="E264" s="1">
         <v>459.33</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="3" t="s">
         <v>795</v>
       </c>
     </row>
@@ -9939,7 +9955,7 @@
       <c r="E265" s="1">
         <v>317.82</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="3" t="s">
         <v>798</v>
       </c>
     </row>
@@ -9959,7 +9975,7 @@
       <c r="E266" s="1">
         <v>181.44</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="3" t="s">
         <v>801</v>
       </c>
     </row>
@@ -9979,7 +9995,7 @@
       <c r="E267" s="1">
         <v>226.23099999999999</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F267" s="3" t="s">
         <v>804</v>
       </c>
     </row>
@@ -9999,7 +10015,7 @@
       <c r="E268" s="1">
         <v>228.31</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F268" s="3" t="s">
         <v>807</v>
       </c>
     </row>
@@ -10019,7 +10035,7 @@
       <c r="E269" s="1">
         <v>170.21100000000001</v>
       </c>
-      <c r="F269" t="s">
+      <c r="F269" s="3" t="s">
         <v>810</v>
       </c>
     </row>
@@ -10039,7 +10055,7 @@
       <c r="E270" s="1">
         <v>194.23</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F270" s="3" t="s">
         <v>813</v>
       </c>
     </row>
@@ -10059,7 +10075,7 @@
       <c r="E271" s="1">
         <v>367.24</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F271" s="3" t="s">
         <v>816</v>
       </c>
     </row>
@@ -10079,7 +10095,7 @@
       <c r="E272" s="1">
         <v>335.28300000000002</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F272" s="3" t="s">
         <v>819</v>
       </c>
     </row>
@@ -10099,7 +10115,7 @@
       <c r="E273" s="1">
         <v>327.12</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F273" s="3" t="s">
         <v>822</v>
       </c>
     </row>
@@ -10119,7 +10135,7 @@
       <c r="E274" s="1">
         <v>329.44</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F274" s="3" t="s">
         <v>825</v>
       </c>
     </row>
@@ -10139,7 +10155,7 @@
       <c r="E275" s="1">
         <v>300.39800000000002</v>
       </c>
-      <c r="F275" t="s">
+      <c r="F275" s="3" t="s">
         <v>828</v>
       </c>
     </row>
@@ -10159,7 +10175,7 @@
       <c r="E276" s="1">
         <v>295.32</v>
       </c>
-      <c r="F276" t="s">
+      <c r="F276" s="3" t="s">
         <v>831</v>
       </c>
     </row>
@@ -10179,7 +10195,7 @@
       <c r="E277" s="1">
         <v>252.31800000000001</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F277" s="3" t="s">
         <v>834</v>
       </c>
     </row>
@@ -10199,7 +10215,7 @@
       <c r="E278" s="1">
         <v>387.18</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F278" s="3" t="s">
         <v>837</v>
       </c>
     </row>
@@ -10219,7 +10235,7 @@
       <c r="E279" s="1">
         <v>272.38799999999998</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F279" s="3" t="s">
         <v>840</v>
       </c>
     </row>
@@ -10239,7 +10255,7 @@
       <c r="E280" s="1">
         <v>154.21199999999999</v>
       </c>
-      <c r="F280" t="s">
+      <c r="F280" s="3" t="s">
         <v>843</v>
       </c>
     </row>
@@ -10259,7 +10275,7 @@
       <c r="E281" s="1">
         <v>302.2</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F281" s="3" t="s">
         <v>846</v>
       </c>
     </row>
@@ -10279,7 +10295,7 @@
       <c r="E282" s="1">
         <v>339.32</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F282" s="3" t="s">
         <v>849</v>
       </c>
     </row>
@@ -10299,7 +10315,7 @@
       <c r="E283" s="1">
         <v>305.44</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F283" s="3" t="s">
         <v>852</v>
       </c>
     </row>
@@ -10319,7 +10335,7 @@
       <c r="E284" s="1">
         <v>333.267</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F284" s="3" t="s">
         <v>855</v>
       </c>
     </row>
@@ -10339,7 +10355,7 @@
       <c r="E285" s="1">
         <v>314.33699999999999</v>
       </c>
-      <c r="F285" t="s">
+      <c r="F285" s="3" t="s">
         <v>858</v>
       </c>
     </row>
@@ -10359,7 +10375,7 @@
       <c r="E286" s="1">
         <v>311.39999999999998</v>
       </c>
-      <c r="F286" t="s">
+      <c r="F286" s="3" t="s">
         <v>861</v>
       </c>
     </row>
@@ -10379,7 +10395,7 @@
       <c r="E287" s="1">
         <v>297.358</v>
       </c>
-      <c r="F287" t="s">
+      <c r="F287" s="3" t="s">
         <v>864</v>
       </c>
     </row>
@@ -10399,7 +10415,7 @@
       <c r="E288" s="1">
         <v>363.33</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F288" s="3" t="s">
         <v>867</v>
       </c>
     </row>
@@ -10419,7 +10435,7 @@
       <c r="E289" s="1">
         <v>212.20099999999999</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F289" s="3" t="s">
         <v>870</v>
       </c>
     </row>
@@ -10439,7 +10455,7 @@
       <c r="E290" s="1">
         <v>235.06</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F290" s="3" t="s">
         <v>873</v>
       </c>
     </row>
@@ -10459,7 +10475,7 @@
       <c r="E291" s="1">
         <v>265.33</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F291" s="3" t="s">
         <v>876</v>
       </c>
     </row>
@@ -10479,7 +10495,7 @@
       <c r="E292" s="1">
         <v>483.67</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F292" s="3" t="s">
         <v>879</v>
       </c>
     </row>
@@ -10499,7 +10515,7 @@
       <c r="E293" s="1">
         <v>283.33999999999997</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F293" s="3" t="s">
         <v>882</v>
       </c>
     </row>
@@ -10519,7 +10535,7 @@
       <c r="E294" s="1">
         <v>305.33</v>
       </c>
-      <c r="F294" t="s">
+      <c r="F294" s="3" t="s">
         <v>885</v>
       </c>
     </row>
@@ -10539,7 +10555,7 @@
       <c r="E295" s="1">
         <v>311.85000000000002</v>
       </c>
-      <c r="F295" t="s">
+      <c r="F295" s="3" t="s">
         <v>888</v>
       </c>
     </row>
@@ -10559,7 +10575,7 @@
       <c r="E296" s="1">
         <v>438.76</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F296" s="3" t="s">
         <v>891</v>
       </c>
     </row>
@@ -10579,7 +10595,7 @@
       <c r="E297" s="1">
         <v>404.48</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F297" s="3" t="s">
         <v>894</v>
       </c>
     </row>
@@ -10599,7 +10615,7 @@
       <c r="E298" s="1">
         <v>184.279</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F298" s="3" t="s">
         <v>897</v>
       </c>
     </row>
@@ -10619,7 +10635,7 @@
       <c r="E299" s="1">
         <v>323.315</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F299" s="3" t="s">
         <v>900</v>
       </c>
     </row>
@@ -10639,7 +10655,7 @@
       <c r="E300" s="1">
         <v>455.82</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F300" s="3" t="s">
         <v>903</v>
       </c>
     </row>
@@ -10659,7 +10675,7 @@
       <c r="E301" s="1">
         <v>350.47</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F301" s="3" t="s">
         <v>906</v>
       </c>
     </row>
@@ -10679,7 +10695,7 @@
       <c r="E302" s="1">
         <v>158.285</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F302" s="3" t="s">
         <v>909</v>
       </c>
     </row>
@@ -10699,7 +10715,7 @@
       <c r="E303" s="1">
         <v>217.37</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="3" t="s">
         <v>912</v>
       </c>
     </row>
@@ -10719,7 +10735,7 @@
       <c r="E304" s="1">
         <v>349.74</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F304" s="3" t="s">
         <v>915</v>
       </c>
     </row>
@@ -10739,7 +10755,7 @@
       <c r="E305" s="1">
         <v>86.134</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F305" s="3" t="s">
         <v>918</v>
       </c>
     </row>
@@ -10759,7 +10775,7 @@
       <c r="E306" s="1">
         <v>296.61599999999999</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F306" s="3" t="s">
         <v>921</v>
       </c>
     </row>
@@ -10779,7 +10795,7 @@
       <c r="E307" s="1">
         <v>275.392</v>
       </c>
-      <c r="F307" t="s">
+      <c r="F307" s="3" t="s">
         <v>924</v>
       </c>
     </row>
@@ -10799,7 +10815,7 @@
       <c r="E308" s="1">
         <v>229.71</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F308" s="3" t="s">
         <v>927</v>
       </c>
     </row>
@@ -10819,7 +10835,7 @@
       <c r="E309" s="1">
         <v>474.00400000000002</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F309" s="3" t="s">
         <v>930</v>
       </c>
     </row>
@@ -10839,7 +10855,7 @@
       <c r="E310" s="1">
         <v>303.67</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F310" s="3" t="s">
         <v>933</v>
       </c>
     </row>
@@ -10859,7 +10875,7 @@
       <c r="E311" s="1">
         <v>71.078999999999994</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F311" s="3" t="s">
         <v>936</v>
       </c>
     </row>
@@ -10879,7 +10895,7 @@
       <c r="E312" s="1">
         <v>268.35599999999999</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F312" s="3" t="s">
         <v>939</v>
       </c>
     </row>
@@ -10899,7 +10915,7 @@
       <c r="E313" s="1">
         <v>357.38099999999997</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F313" s="3" t="s">
         <v>942</v>
       </c>
     </row>
@@ -10919,7 +10935,7 @@
       <c r="E314" s="1">
         <v>178.23099999999999</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F314" s="3" t="s">
         <v>945</v>
       </c>
     </row>
@@ -10939,7 +10955,7 @@
       <c r="E315" s="1">
         <v>199.25700000000001</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F315" s="3" t="s">
         <v>948</v>
       </c>
     </row>
@@ -10959,7 +10975,7 @@
       <c r="E316" s="1">
         <v>123.111</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F316" s="3" t="s">
         <v>951</v>
       </c>
     </row>
@@ -10979,7 +10995,7 @@
       <c r="E317" s="1">
         <v>327.48</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F317" s="3" t="s">
         <v>954</v>
       </c>
     </row>
@@ -10999,7 +11015,7 @@
       <c r="E318" s="1">
         <v>286.33999999999997</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F318" s="3" t="s">
         <v>957</v>
       </c>
     </row>
@@ -11019,7 +11035,7 @@
       <c r="E319" s="1">
         <v>162.27600000000001</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F319" s="3" t="s">
         <v>960</v>
       </c>
     </row>
@@ -11039,7 +11055,7 @@
       <c r="E320" s="1">
         <v>293.41399999999999</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F320" s="3" t="s">
         <v>963</v>
       </c>
     </row>
@@ -11059,7 +11075,7 @@
       <c r="E321" s="1">
         <v>150.221</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F321" s="3" t="s">
         <v>966</v>
       </c>
     </row>
@@ -11079,7 +11095,7 @@
       <c r="E322" s="1">
         <v>215.36</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F322" s="3" t="s">
         <v>969</v>
       </c>
     </row>
@@ -11099,7 +11115,7 @@
       <c r="E323" t="s">
         <v>8</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F323" s="3" t="s">
         <v>972</v>
       </c>
     </row>
@@ -11119,7 +11135,7 @@
       <c r="E324" s="1">
         <v>181.44</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F324" s="3" t="s">
         <v>975</v>
       </c>
     </row>
@@ -11139,7 +11155,7 @@
       <c r="E325" s="1">
         <v>149.23699999999999</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F325" s="3" t="s">
         <v>978</v>
       </c>
     </row>
@@ -11159,7 +11175,7 @@
       <c r="E326" s="1">
         <v>126.58</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F326" s="3" t="s">
         <v>981</v>
       </c>
     </row>
@@ -11179,7 +11195,7 @@
       <c r="E327" s="1">
         <v>376.66</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F327" s="3" t="s">
         <v>984</v>
       </c>
     </row>
@@ -11199,7 +11215,7 @@
       <c r="E328" s="1">
         <v>162.18799999999999</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F328" s="3" t="s">
         <v>987</v>
       </c>
     </row>
@@ -11219,7 +11235,7 @@
       <c r="E329" s="1">
         <v>345.22</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F329" s="3" t="s">
         <v>990</v>
       </c>
     </row>
@@ -11239,7 +11255,7 @@
       <c r="E330" s="1">
         <v>368.47699999999998</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F330" s="3" t="s">
         <v>993</v>
       </c>
     </row>
@@ -11259,7 +11275,7 @@
       <c r="E331" s="1">
         <v>224.149</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F331" s="3" t="s">
         <v>996</v>
       </c>
     </row>
@@ -11279,7 +11295,7 @@
       <c r="E332" s="1">
         <v>421.73</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="3" t="s">
         <v>999</v>
       </c>
     </row>
@@ -11299,7 +11315,7 @@
       <c r="E333" s="1">
         <v>233.09</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F333" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -11319,7 +11335,7 @@
       <c r="E334" s="1">
         <v>183.22</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F334" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -11339,7 +11355,7 @@
       <c r="E335" s="1">
         <v>261.94099999999997</v>
       </c>
-      <c r="F335" t="s">
+      <c r="F335" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -11359,7 +11375,7 @@
       <c r="E336" s="1">
         <v>215.69</v>
       </c>
-      <c r="F336" t="s">
+      <c r="F336" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -11379,7 +11395,7 @@
       <c r="E337" s="1">
         <v>128.94</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F337" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -11399,7 +11415,7 @@
       <c r="E338" s="1">
         <v>300.358</v>
       </c>
-      <c r="F338" t="s">
+      <c r="F338" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -11419,7 +11435,7 @@
       <c r="E339" s="1">
         <v>149.19</v>
       </c>
-      <c r="F339" t="s">
+      <c r="F339" s="3" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -11439,7 +11455,7 @@
       <c r="E340" s="1">
         <v>134.22200000000001</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F340" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
@@ -11459,7 +11475,7 @@
       <c r="E341" s="1">
         <v>373.46800000000002</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F341" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
@@ -11479,7 +11495,7 @@
       <c r="E342" s="1">
         <v>527.67999999999995</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F342" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -11499,7 +11515,7 @@
       <c r="E343" s="1">
         <v>121.18300000000001</v>
       </c>
-      <c r="F343" t="s">
+      <c r="F343" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
@@ -11519,7 +11535,7 @@
       <c r="E344" s="1">
         <v>168.15199999999999</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F344" s="3" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -11539,7 +11555,7 @@
       <c r="E345" s="1">
         <v>152.23699999999999</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F345" s="3" t="s">
         <v>1038</v>
       </c>
     </row>
@@ -11559,7 +11575,7 @@
       <c r="E346" s="1">
         <v>412.65499999999997</v>
       </c>
-      <c r="F346" t="s">
+      <c r="F346" s="3" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -11579,7 +11595,7 @@
       <c r="E347" s="1">
         <v>128.131</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F347" s="3" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -11599,7 +11615,7 @@
       <c r="E348" s="1">
         <v>336.64</v>
       </c>
-      <c r="F348" t="s">
+      <c r="F348" s="3" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -11619,7 +11635,7 @@
       <c r="E349" s="1">
         <v>413.17</v>
       </c>
-      <c r="F349" t="s">
+      <c r="F349" s="3" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -11639,7 +11655,7 @@
       <c r="E350" s="1">
         <v>136.19399999999999</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F350" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -11659,7 +11675,7 @@
       <c r="E351" s="1">
         <v>138.126</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F351" s="3" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -11679,7 +11695,7 @@
       <c r="E352" s="1">
         <v>226.36</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F352" s="3" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -11699,7 +11715,7 @@
       <c r="E353" s="1">
         <v>221.03</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F353" s="3" t="s">
         <v>1062</v>
       </c>
     </row>
@@ -11719,7 +11735,7 @@
       <c r="E354" s="1">
         <v>162.22900000000001</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F354" s="3" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -11739,7 +11755,7 @@
       <c r="E355" s="1">
         <v>201.22499999999999</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F355" s="3" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -11759,7 +11775,7 @@
       <c r="E356" s="1">
         <v>189.74</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F356" s="3" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -11779,7 +11795,7 @@
       <c r="E357" s="1">
         <v>678.59299999999996</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F357" s="3" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -11799,7 +11815,7 @@
       <c r="E358" s="1">
         <v>374.39600000000002</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F358" s="3" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -11819,7 +11835,7 @@
       <c r="E359" s="1">
         <v>302.238</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F359" s="3" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -11839,7 +11855,7 @@
       <c r="E360" s="1">
         <v>158.20400000000001</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F360" s="3" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11859,7 +11875,7 @@
       <c r="E361" s="1">
         <v>575.56899999999996</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F361" s="3" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -11879,7 +11895,7 @@
       <c r="E362" s="1">
         <v>234.24799999999999</v>
       </c>
-      <c r="F362" t="s">
+      <c r="F362" s="3" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -11899,7 +11915,7 @@
       <c r="E363" s="1">
         <v>152.149</v>
       </c>
-      <c r="F363" t="s">
+      <c r="F363" s="3" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -11919,7 +11935,7 @@
       <c r="E364" s="1">
         <v>197.44</v>
       </c>
-      <c r="F364" t="s">
+      <c r="F364" s="3" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -11939,7 +11955,7 @@
       <c r="E365" s="1">
         <v>238.291</v>
       </c>
-      <c r="F365" t="s">
+      <c r="F365" s="3" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -11959,7 +11975,7 @@
       <c r="E366" s="1">
         <v>278.34800000000001</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F366" s="3" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -11979,7 +11995,7 @@
       <c r="E367" s="1">
         <v>261.28100000000001</v>
       </c>
-      <c r="F367" t="s">
+      <c r="F367" s="3" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -11999,7 +12015,7 @@
       <c r="E368" s="1">
         <v>150.17400000000001</v>
       </c>
-      <c r="F368" t="s">
+      <c r="F368" s="3" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -12019,7 +12035,7 @@
       <c r="E369" s="1">
         <v>137.13800000000001</v>
       </c>
-      <c r="F369" t="s">
+      <c r="F369" s="3" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -12039,7 +12055,7 @@
       <c r="E370" s="1">
         <v>206.32900000000001</v>
       </c>
-      <c r="F370" t="s">
+      <c r="F370" s="3" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -12059,7 +12075,7 @@
       <c r="E371" s="1">
         <v>264.39699999999999</v>
       </c>
-      <c r="F371" t="s">
+      <c r="F371" s="3" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -12079,7 +12095,7 @@
       <c r="E372" s="1">
         <v>137.18199999999999</v>
       </c>
-      <c r="F372" t="s">
+      <c r="F372" s="3" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -12099,7 +12115,7 @@
       <c r="E373" s="1">
         <v>361.66</v>
       </c>
-      <c r="F373" t="s">
+      <c r="F373" s="3" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -12119,7 +12135,7 @@
       <c r="E374" s="1">
         <v>342.39100000000002</v>
       </c>
-      <c r="F374" t="s">
+      <c r="F374" s="3" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -12139,7 +12155,7 @@
       <c r="E375" s="1">
         <v>108.14</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F375" s="3" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -12159,7 +12175,7 @@
       <c r="E376" s="1">
         <v>192.12299999999999</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F376" s="3" t="s">
         <v>1131</v>
       </c>
     </row>
@@ -12179,7 +12195,7 @@
       <c r="E377" s="1">
         <v>190.26</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F377" s="3" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -12199,7 +12215,7 @@
       <c r="E378" s="1">
         <v>191.274</v>
       </c>
-      <c r="F378" t="s">
+      <c r="F378" s="3" t="s">
         <v>1137</v>
       </c>
     </row>
@@ -12219,7 +12235,7 @@
       <c r="E379" s="1">
         <v>61.084000000000003</v>
       </c>
-      <c r="F379" t="s">
+      <c r="F379" s="3" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -12239,7 +12255,7 @@
       <c r="E380" s="1">
         <v>76.094999999999999</v>
       </c>
-      <c r="F380" t="s">
+      <c r="F380" s="3" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -12259,7 +12275,7 @@
       <c r="E381" s="1">
         <v>297.73</v>
       </c>
-      <c r="F381" t="s">
+      <c r="F381" s="3" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -12279,7 +12295,7 @@
       <c r="E382" s="1">
         <v>88.105999999999995</v>
       </c>
-      <c r="F382" t="s">
+      <c r="F382" s="3" t="s">
         <v>1149</v>
       </c>
     </row>
@@ -12299,7 +12315,7 @@
       <c r="E383" s="1">
         <v>253.08</v>
       </c>
-      <c r="F383" t="s">
+      <c r="F383" s="3" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -12319,7 +12335,7 @@
       <c r="E384" s="1">
         <v>122.167</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F384" s="3" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -12339,7 +12355,7 @@
       <c r="E385" s="1">
         <v>318.32799999999997</v>
       </c>
-      <c r="F385" t="s">
+      <c r="F385" s="3" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -12359,7 +12375,7 @@
       <c r="E386" s="1">
         <v>74.078999999999994</v>
       </c>
-      <c r="F386" t="s">
+      <c r="F386" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -12379,7 +12395,7 @@
       <c r="E387" s="1">
         <v>121.18300000000001</v>
       </c>
-      <c r="F387" t="s">
+      <c r="F387" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -12399,7 +12415,7 @@
       <c r="E388" s="1">
         <v>129.16200000000001</v>
       </c>
-      <c r="F388" t="s">
+      <c r="F388" s="3" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -12419,7 +12435,7 @@
       <c r="E389" s="1">
         <v>212.42099999999999</v>
       </c>
-      <c r="F389" t="s">
+      <c r="F389" s="3" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -12439,7 +12455,7 @@
       <c r="E390" s="1">
         <v>134.17500000000001</v>
       </c>
-      <c r="F390" t="s">
+      <c r="F390" s="3" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -12459,7 +12475,7 @@
       <c r="E391" s="1">
         <v>236.23099999999999</v>
       </c>
-      <c r="F391" t="s">
+      <c r="F391" s="3" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -12479,7 +12495,7 @@
       <c r="E392" s="1">
         <v>379.45</v>
       </c>
-      <c r="F392" t="s">
+      <c r="F392" s="3" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -12499,7 +12515,7 @@
       <c r="E393" s="1">
         <v>130.191</v>
       </c>
-      <c r="F393" t="s">
+      <c r="F393" s="3" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -12519,7 +12535,7 @@
       <c r="E394" s="1">
         <v>128.97999999999999</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F394" s="3" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -12539,7 +12555,7 @@
       <c r="E395" s="1">
         <v>435.22</v>
       </c>
-      <c r="F395" t="s">
+      <c r="F395" s="3" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -12559,7 +12575,7 @@
       <c r="E396" s="1">
         <v>317.20999999999998</v>
       </c>
-      <c r="F396" t="s">
+      <c r="F396" s="3" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -12579,7 +12595,7 @@
       <c r="E397" s="1">
         <v>240.7</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F397" s="3" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -12599,7 +12615,7 @@
       <c r="E398" s="1">
         <v>390.56400000000002</v>
       </c>
-      <c r="F398" t="s">
+      <c r="F398" s="3" t="s">
         <v>1197</v>
       </c>
     </row>
@@ -12619,7 +12635,7 @@
       <c r="E399" s="1">
         <v>147</v>
       </c>
-      <c r="F399" t="s">
+      <c r="F399" s="3" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -12639,7 +12655,7 @@
       <c r="E400" s="1">
         <v>122.167</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F400" s="3" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -12659,7 +12675,7 @@
       <c r="E401" s="1">
         <v>232.4</v>
       </c>
-      <c r="F401" t="s">
+      <c r="F401" s="3" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -12679,7 +12695,7 @@
       <c r="E402" s="1">
         <v>116.16</v>
       </c>
-      <c r="F402" t="s">
+      <c r="F402" s="3" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -12699,7 +12715,7 @@
       <c r="E403" s="1">
         <v>185.35499999999999</v>
       </c>
-      <c r="F403" t="s">
+      <c r="F403" s="3" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -12719,7 +12735,7 @@
       <c r="E404" s="1">
         <v>203.34</v>
       </c>
-      <c r="F404" t="s">
+      <c r="F404" s="3" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -12739,7 +12755,7 @@
       <c r="E405" s="1">
         <v>154.25299999999999</v>
       </c>
-      <c r="F405" t="s">
+      <c r="F405" s="3" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -12759,7 +12775,7 @@
       <c r="E406" s="1">
         <v>150.221</v>
       </c>
-      <c r="F406" t="s">
+      <c r="F406" s="3" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -12779,7 +12795,7 @@
       <c r="E407" s="1">
         <v>222.24</v>
       </c>
-      <c r="F407" t="s">
+      <c r="F407" s="3" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -12799,7 +12815,7 @@
       <c r="E408" s="1">
         <v>110.13</v>
       </c>
-      <c r="F408" t="s">
+      <c r="F408" s="3" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -12819,7 +12835,7 @@
       <c r="E409" s="1">
         <v>139.11000000000001</v>
       </c>
-      <c r="F409" t="s">
+      <c r="F409" s="3" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -12839,7 +12855,7 @@
       <c r="E410" s="1">
         <v>311.39999999999998</v>
       </c>
-      <c r="F410" t="s">
+      <c r="F410" s="3" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -12859,7 +12875,7 @@
       <c r="E411" s="1">
         <v>118.176</v>
       </c>
-      <c r="F411" t="s">
+      <c r="F411" s="3" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -12879,7 +12895,7 @@
       <c r="E412" s="1">
         <v>514.70000000000005</v>
       </c>
-      <c r="F412" t="s">
+      <c r="F412" s="3" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -12899,7 +12915,7 @@
       <c r="E413" s="1">
         <v>174.196</v>
       </c>
-      <c r="F413" t="s">
+      <c r="F413" s="3" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -12919,7 +12935,7 @@
       <c r="E414" s="1">
         <v>312.36500000000001</v>
       </c>
-      <c r="F414" t="s">
+      <c r="F414" s="3" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -12939,7 +12955,7 @@
       <c r="E415" s="1">
         <v>404.42599999999999</v>
       </c>
-      <c r="F415" t="s">
+      <c r="F415" s="3" t="s">
         <v>1248</v>
       </c>
     </row>
@@ -12959,7 +12975,7 @@
       <c r="E416" s="1">
         <v>247.72</v>
       </c>
-      <c r="F416" t="s">
+      <c r="F416" s="3" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -12979,7 +12995,7 @@
       <c r="E417" s="1">
         <v>99.132999999999996</v>
       </c>
-      <c r="F417" t="s">
+      <c r="F417" s="3" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -12999,7 +13015,7 @@
       <c r="E418" s="1">
         <v>434.642</v>
       </c>
-      <c r="F418" t="s">
+      <c r="F418" s="3" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -13019,7 +13035,7 @@
       <c r="E419" s="1">
         <v>452.36</v>
       </c>
-      <c r="F419" t="s">
+      <c r="F419" s="3" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -13039,7 +13055,7 @@
       <c r="E420" s="1">
         <v>161.09200000000001</v>
       </c>
-      <c r="F420" t="s">
+      <c r="F420" s="3" t="s">
         <v>1263</v>
       </c>
     </row>
@@ -13059,7 +13075,7 @@
       <c r="E421" s="1">
         <v>198.10599999999999</v>
       </c>
-      <c r="F421" t="s">
+      <c r="F421" s="3" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -13079,7 +13095,7 @@
       <c r="E422" s="1">
         <v>258.233</v>
       </c>
-      <c r="F422" t="s">
+      <c r="F422" s="3" t="s">
         <v>1269</v>
       </c>
     </row>
@@ -13099,7 +13115,7 @@
       <c r="E423" s="1">
         <v>354.33699999999999</v>
       </c>
-      <c r="F423" t="s">
+      <c r="F423" s="3" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -13119,7 +13135,7 @@
       <c r="E424" s="1">
         <v>305.8</v>
       </c>
-      <c r="F424" t="s">
+      <c r="F424" s="3" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -13139,7 +13155,7 @@
       <c r="E425" s="1">
         <v>180.184</v>
       </c>
-      <c r="F425" t="s">
+      <c r="F425" s="3" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -13159,7 +13175,7 @@
       <c r="E426" s="1">
         <v>116.16</v>
       </c>
-      <c r="F426" t="s">
+      <c r="F426" s="3" t="s">
         <v>1281</v>
       </c>
     </row>
@@ -13179,7 +13195,7 @@
       <c r="E427" s="1">
         <v>286.41199999999998</v>
       </c>
-      <c r="F427" t="s">
+      <c r="F427" s="3" t="s">
         <v>1284</v>
       </c>
     </row>
@@ -13199,7 +13215,7 @@
       <c r="E428" s="1">
         <v>289.33499999999998</v>
       </c>
-      <c r="F428" t="s">
+      <c r="F428" s="3" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -13219,7 +13235,7 @@
       <c r="E429" s="1">
         <v>200.62</v>
       </c>
-      <c r="F429" t="s">
+      <c r="F429" s="3" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -13239,7 +13255,7 @@
       <c r="E430" s="1">
         <v>110.11199999999999</v>
       </c>
-      <c r="F430" t="s">
+      <c r="F430" s="3" t="s">
         <v>1293</v>
       </c>
     </row>
@@ -13259,7 +13275,7 @@
       <c r="E431" s="1">
         <v>348.483</v>
       </c>
-      <c r="F431" t="s">
+      <c r="F431" s="3" t="s">
         <v>1296</v>
       </c>
     </row>
@@ -13279,7 +13295,7 @@
       <c r="E432" s="1">
         <v>76.055000000000007</v>
       </c>
-      <c r="F432" t="s">
+      <c r="F432" s="3" t="s">
         <v>1299</v>
       </c>
     </row>
@@ -13299,7 +13315,7 @@
       <c r="E433" s="1">
         <v>296.41000000000003</v>
       </c>
-      <c r="F433" t="s">
+      <c r="F433" s="3" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -13319,7 +13335,7 @@
       <c r="E434" s="1">
         <v>80.510000000000005</v>
       </c>
-      <c r="F434" t="s">
+      <c r="F434" s="3" t="s">
         <v>1305</v>
       </c>
     </row>
@@ -13339,7 +13355,7 @@
       <c r="E435" s="1">
         <v>120.151</v>
       </c>
-      <c r="F435" t="s">
+      <c r="F435" s="3" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -13359,7 +13375,7 @@
       <c r="E436" s="1">
         <v>144.214</v>
       </c>
-      <c r="F436" t="s">
+      <c r="F436" s="3" t="s">
         <v>1311</v>
       </c>
     </row>
@@ -13379,7 +13395,7 @@
       <c r="E437" s="1">
         <v>128.215</v>
       </c>
-      <c r="F437" t="s">
+      <c r="F437" s="3" t="s">
         <v>1314</v>
       </c>
     </row>
@@ -13399,7 +13415,7 @@
       <c r="E438" s="1">
         <v>342.29700000000003</v>
       </c>
-      <c r="F438" t="s">
+      <c r="F438" s="3" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -13419,7 +13435,7 @@
       <c r="E439" s="1">
         <v>284.48399999999998</v>
       </c>
-      <c r="F439" t="s">
+      <c r="F439" s="3" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -13439,7 +13455,7 @@
       <c r="E440" s="1">
         <v>222.24</v>
       </c>
-      <c r="F440" t="s">
+      <c r="F440" s="3" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -13459,7 +13475,7 @@
       <c r="E441" s="1">
         <v>534.36</v>
       </c>
-      <c r="F441" t="s">
+      <c r="F441" s="3" t="s">
         <v>1326</v>
       </c>
     </row>
@@ -13479,7 +13495,7 @@
       <c r="E442" s="1">
         <v>406.41699999999997</v>
       </c>
-      <c r="F442" t="s">
+      <c r="F442" s="3" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -13499,7 +13515,7 @@
       <c r="E443" s="1">
         <v>112.08799999999999</v>
       </c>
-      <c r="F443" t="s">
+      <c r="F443" s="3" t="s">
         <v>1332</v>
       </c>
     </row>
@@ -13519,7 +13535,7 @@
       <c r="E444" s="1">
         <v>209.245</v>
       </c>
-      <c r="F444" t="s">
+      <c r="F444" s="3" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -13539,7 +13555,7 @@
       <c r="E445" s="1">
         <v>269.77</v>
       </c>
-      <c r="F445" t="s">
+      <c r="F445" s="3" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -13559,7 +13575,7 @@
       <c r="E446" s="1">
         <v>323.8</v>
       </c>
-      <c r="F446" t="s">
+      <c r="F446" s="3" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -13579,7 +13595,7 @@
       <c r="E447" s="1">
         <v>85.105999999999995</v>
       </c>
-      <c r="F447" t="s">
+      <c r="F447" s="3" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -13599,7 +13615,7 @@
       <c r="E448" s="1">
         <v>194.23</v>
       </c>
-      <c r="F448" t="s">
+      <c r="F448" s="3" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -13619,7 +13635,7 @@
       <c r="E449" s="1">
         <v>118.13500000000001</v>
       </c>
-      <c r="F449" t="s">
+      <c r="F449" s="3" t="s">
         <v>1350</v>
       </c>
     </row>
@@ -13639,7 +13655,7 @@
       <c r="E450" s="1">
         <v>184.24199999999999</v>
       </c>
-      <c r="F450" t="s">
+      <c r="F450" s="3" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -13659,7 +13675,7 @@
       <c r="E451" s="1">
         <v>61.83</v>
       </c>
-      <c r="F451" t="s">
+      <c r="F451" s="3" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -13679,7 +13695,7 @@
       <c r="E452" s="1">
         <v>230.24</v>
       </c>
-      <c r="F452" t="s">
+      <c r="F452" s="3" t="s">
         <v>1359</v>
       </c>
     </row>
@@ -13699,7 +13715,7 @@
       <c r="E453" s="1">
         <v>180.15899999999999</v>
       </c>
-      <c r="F453" t="s">
+      <c r="F453" s="3" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -13719,7 +13735,7 @@
       <c r="E454" s="1">
         <v>111.14400000000001</v>
       </c>
-      <c r="F454" t="s">
+      <c r="F454" s="3" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -13739,7 +13755,7 @@
       <c r="E455" s="1">
         <v>199.27</v>
       </c>
-      <c r="F455" t="s">
+      <c r="F455" s="3" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -13759,7 +13775,7 @@
       <c r="E456" s="1">
         <v>142.20099999999999</v>
       </c>
-      <c r="F456" t="s">
+      <c r="F456" s="3" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -13779,7 +13795,7 @@
       <c r="E457" s="1">
         <v>126.111</v>
       </c>
-      <c r="F457" t="s">
+      <c r="F457" s="3" t="s">
         <v>1374</v>
       </c>
     </row>
@@ -13799,7 +13815,7 @@
       <c r="E458" s="1">
         <v>275.79000000000002</v>
       </c>
-      <c r="F458" t="s">
+      <c r="F458" s="3" t="s">
         <v>1377</v>
       </c>
     </row>
@@ -13819,7 +13835,7 @@
       <c r="E459" s="1">
         <v>94.113</v>
       </c>
-      <c r="F459" t="s">
+      <c r="F459" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -13839,7 +13855,7 @@
       <c r="E460" s="1">
         <v>69.066999999999993</v>
       </c>
-      <c r="F460" t="s">
+      <c r="F460" s="3" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -13859,7 +13875,7 @@
       <c r="E461" s="1">
         <v>239.7</v>
       </c>
-      <c r="F461" t="s">
+      <c r="F461" s="3" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -13879,7 +13895,7 @@
       <c r="E462" s="1">
         <v>227.33</v>
       </c>
-      <c r="F462" t="s">
+      <c r="F462" s="3" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -13899,7 +13915,7 @@
       <c r="E463" s="1">
         <v>86.09</v>
       </c>
-      <c r="F463" t="s">
+      <c r="F463" s="3" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -13919,7 +13935,7 @@
       <c r="E464" s="1">
         <v>132.15899999999999</v>
       </c>
-      <c r="F464" t="s">
+      <c r="F464" s="3" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -13939,7 +13955,7 @@
       <c r="E465" s="1">
         <v>406.21</v>
       </c>
-      <c r="F465" t="s">
+      <c r="F465" s="3" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -13959,7 +13975,7 @@
       <c r="E466" s="1">
         <v>173.6</v>
       </c>
-      <c r="F466" t="s">
+      <c r="F466" s="3" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -13979,7 +13995,7 @@
       <c r="E467" s="1">
         <v>274.10000000000002</v>
       </c>
-      <c r="F467" t="s">
+      <c r="F467" s="3" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -13999,8 +14015,48 @@
       <c r="E468" s="1">
         <v>137.99799999999999</v>
       </c>
-      <c r="F468" t="s">
+      <c r="F468" s="3" t="s">
         <v>1407</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>1918021</v>
+      </c>
+      <c r="B469" t="s">
+        <v>5</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E469">
+        <v>241.45</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>2425061</v>
+      </c>
+      <c r="B470" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E470">
+        <v>349.05</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>1413</v>
       </c>
     </row>
   </sheetData>
